--- a/testdata/out_placeholder.xlsx
+++ b/testdata/out_placeholder.xlsx
@@ -4,7 +4,7 @@
   <ma:fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <ma:workbookPr/>
   <ma:bookViews>
-    <ma:workbookView windowHeight="15300"/>
+    <ma:workbookView windowHeight="14660"/>
   </ma:bookViews>
   <ma:sheets>
     <ma:sheet name="普通和安全开发" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <ma:t>产品服务联系人姓名</ma:t>
   </ma:si>
   <ma:si>
-    <ma:t>{{ContactName}}</ma:t>
+    <ma:t>{{ContactName}}先生</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>联系方式</ma:t>
@@ -88,7 +88,7 @@
     <ma:t>客户端</ma:t>
   </ma:si>
   <ma:si>
-    <ma:t>隔壁老王</ma:t>
+    <ma:t>隔壁老王先生</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>1234567890</ma:t>
@@ -97,7 +97,7 @@
     <ma:t>010-1234567890</ma:t>
   </ma:si>
   <ma:si>
-    <ma:t>2020-04-07 11:57:53</ma:t>
+    <ma:t>2020-04-08 20:53:11</ma:t>
   </ma:si>
   <ma:si>
     <ma:t xml:space="preserve">来弄你</ma:t>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <ma:styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ma="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xml="http://www.w3.org/XML/1998/namespace">
   <ma:numFmts count="4">
+    <ma:numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <ma:numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <ma:numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <ma:numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <ma:numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <ma:numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </ma:numFmts>
   <ma:fonts count="23">
     <ma:font>
@@ -165,8 +165,40 @@
     <ma:font>
       <ma:name val="宋体"/>
       <ma:charset val="134"/>
+      <ma:color indexed="9"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
       <ma:b/>
       <ma:color indexed="54"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:color indexed="19"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:color indexed="10"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:b/>
+      <ma:color indexed="54"/>
+      <ma:sz val="15"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:i/>
+      <ma:color indexed="23"/>
       <ma:sz val="11"/>
     </ma:font>
     <ma:font>
@@ -179,6 +211,26 @@
     <ma:font>
       <ma:name val="宋体"/>
       <ma:charset val="134"/>
+      <ma:color indexed="20"/>
+      <ma:sz val="11"/>
+      <ma:u/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:b/>
+      <ma:color indexed="63"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:color indexed="16"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
       <ma:color indexed="12"/>
       <ma:sz val="11"/>
       <ma:u/>
@@ -186,21 +238,21 @@
     <ma:font>
       <ma:name val="宋体"/>
       <ma:charset val="134"/>
-      <ma:color indexed="9"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:color indexed="10"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:color indexed="20"/>
-      <ma:sz val="11"/>
-      <ma:u/>
+      <ma:color indexed="17"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:b/>
+      <ma:color indexed="53"/>
+      <ma:sz val="11"/>
+    </ma:font>
+    <ma:font>
+      <ma:name val="宋体"/>
+      <ma:charset val="134"/>
+      <ma:color indexed="62"/>
+      <ma:sz val="11"/>
     </ma:font>
     <ma:font>
       <ma:name val="宋体"/>
@@ -213,59 +265,7 @@
       <ma:name val="宋体"/>
       <ma:charset val="134"/>
       <ma:b/>
-      <ma:color indexed="63"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:i/>
-      <ma:color indexed="23"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:b/>
-      <ma:color indexed="54"/>
-      <ma:sz val="15"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:b/>
       <ma:color indexed="9"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:color indexed="17"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:color indexed="19"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:b/>
-      <ma:color indexed="53"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:color indexed="16"/>
-      <ma:sz val="11"/>
-    </ma:font>
-    <ma:font>
-      <ma:name val="宋体"/>
-      <ma:charset val="134"/>
-      <ma:color indexed="62"/>
       <ma:sz val="11"/>
     </ma:font>
   </ma:fonts>
@@ -284,6 +284,24 @@
     </ma:fill>
     <ma:fill>
       <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="57"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="43"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="22"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
         <ma:fgColor indexed="54"/>
         <ma:bgColor indexed="64"/>
       </ma:patternFill>
@@ -296,85 +314,67 @@
     </ma:fill>
     <ma:fill>
       <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="47"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="42"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="9"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="45"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="48"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="53"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="24"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
+        <ma:fgColor indexed="51"/>
+        <ma:bgColor indexed="64"/>
+      </ma:patternFill>
+    </ma:fill>
+    <ma:fill>
+      <ma:patternFill patternType="solid">
         <ma:fgColor indexed="55"/>
         <ma:bgColor indexed="64"/>
       </ma:patternFill>
     </ma:fill>
     <ma:fill>
       <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="22"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="47"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="43"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="48"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="9"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="42"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
         <ma:fgColor indexed="27"/>
         <ma:bgColor indexed="64"/>
       </ma:patternFill>
     </ma:fill>
     <ma:fill>
       <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="53"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
         <ma:fgColor indexed="44"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="51"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="57"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="45"/>
-        <ma:bgColor indexed="64"/>
-      </ma:patternFill>
-    </ma:fill>
-    <ma:fill>
-      <ma:patternFill patternType="solid">
-        <ma:fgColor indexed="24"/>
         <ma:bgColor indexed="64"/>
       </ma:patternFill>
     </ma:fill>
@@ -543,6 +543,32 @@
       <ma:diagonal/>
     </ma:border>
     <ma:border>
+      <ma:left/>
+      <ma:right/>
+      <ma:top style="thin">
+        <ma:color indexed="48"/>
+      </ma:top>
+      <ma:bottom style="double">
+        <ma:color indexed="48"/>
+      </ma:bottom>
+      <ma:diagonal/>
+    </ma:border>
+    <ma:border>
+      <ma:left style="thin">
+        <ma:color indexed="23"/>
+      </ma:left>
+      <ma:right style="thin">
+        <ma:color indexed="23"/>
+      </ma:right>
+      <ma:top style="thin">
+        <ma:color indexed="23"/>
+      </ma:top>
+      <ma:bottom style="thin">
+        <ma:color indexed="23"/>
+      </ma:bottom>
+      <ma:diagonal/>
+    </ma:border>
+    <ma:border>
       <ma:left style="double">
         <ma:color indexed="63"/>
       </ma:left>
@@ -557,176 +583,150 @@
       </ma:bottom>
       <ma:diagonal/>
     </ma:border>
-    <ma:border>
-      <ma:left/>
-      <ma:right/>
-      <ma:top style="thin">
-        <ma:color indexed="48"/>
-      </ma:top>
-      <ma:bottom style="double">
-        <ma:color indexed="48"/>
-      </ma:bottom>
-      <ma:diagonal/>
-    </ma:border>
-    <ma:border>
-      <ma:left style="thin">
-        <ma:color indexed="23"/>
-      </ma:left>
-      <ma:right style="thin">
-        <ma:color indexed="23"/>
-      </ma:right>
-      <ma:top style="thin">
-        <ma:color indexed="23"/>
-      </ma:top>
-      <ma:bottom style="thin">
-        <ma:color indexed="23"/>
-      </ma:bottom>
-      <ma:diagonal/>
-    </ma:border>
   </ma:borders>
   <ma:cellStyleXfs count="50">
     <ma:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <ma:alignment vertical="center"/>
     </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <ma:xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="20" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="19" fillId="10" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="22" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="15" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <ma:alignment vertical="center"/>
     </ma:xf>
     <ma:xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <ma:alignment vertical="center"/>
     </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="22" fillId="7" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="20" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <ma:xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="7" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <ma:alignment vertical="center"/>
     </ma:xf>
     <ma:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <ma:alignment vertical="center"/>
     </ma:xf>
-    <ma:xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="2" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <ma:alignment vertical="center"/>
-    </ma:xf>
-    <ma:xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <ma:xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <ma:alignment vertical="center"/>
+    </ma:xf>
+    <ma:xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <ma:alignment vertical="center"/>
     </ma:xf>
     <ma:xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1136,7 +1136,7 @@
   <ma:dimension ref="A1:E11"/>
   <ma:sheetViews>
     <ma:sheetView tabSelected="1" workbookViewId="0">
-      <ma:selection activeCell="B18" sqref="B18"/>
+      <ma:selection activeCell="B2" sqref="B2:D2"/>
     </ma:sheetView>
   </ma:sheetViews>
   <ma:sheetFormatPr defaultColWidth="9" defaultRowHeight="17.6" outlineLevelCol="4"/>
@@ -1234,7 +1234,7 @@
         <ma:v>16</ma:v>
       </ma:c>
       <ma:c r="C8" s="15" t="s">
-        <ma:v>17</ma:v>
+        <ma:v>30</ma:v>
       </ma:c>
       <ma:c r="D8" s="16"/>
       <ma:c r="E8" s="23"/>
@@ -1245,7 +1245,7 @@
         <ma:v>18</ma:v>
       </ma:c>
       <ma:c r="C9" s="21" t="s">
-        <ma:v>30</ma:v>
+        <ma:v>28</ma:v>
       </ma:c>
       <ma:c r="D9" s="21"/>
       <ma:c r="E9" s="23"/>

--- a/testdata/out_placeholder.xlsx
+++ b/testdata/out_placeholder.xlsx
@@ -97,7 +97,7 @@
     <ma:t>010-1234567890</ma:t>
   </ma:si>
   <ma:si>
-    <ma:t>2020-04-08 20:53:11</ma:t>
+    <ma:t>2020-04-08</ma:t>
   </ma:si>
   <ma:si>
     <ma:t xml:space="preserve">来弄你</ma:t>

--- a/testdata/out_placeholder.xlsx
+++ b/testdata/out_placeholder.xlsx
@@ -88,22 +88,22 @@
     <ma:t>客户端</ma:t>
   </ma:si>
   <ma:si>
+    <ma:t>010-1234567890</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>2020-04-08</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t xml:space="preserve">来弄你</ma:t>
+  </ma:si>
+  <ma:si>
+    <ma:t>X786</ma:t>
+  </ma:si>
+  <ma:si>
     <ma:t>隔壁老王先生</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>1234567890</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>010-1234567890</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>2020-04-08</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t xml:space="preserve">来弄你</ma:t>
-  </ma:si>
-  <ma:si>
-    <ma:t>X786</ma:t>
   </ma:si>
   <ma:si>
     <ma:t>A1</ma:t>
@@ -1161,7 +1161,7 @@
         <ma:v>1</ma:v>
       </ma:c>
       <ma:c r="B2" s="3" t="s">
-        <ma:v>24</ma:v>
+        <ma:v>28</ma:v>
       </ma:c>
       <ma:c r="C2" s="4"/>
       <ma:c r="D2" s="5"/>
@@ -1175,7 +1175,7 @@
         <ma:v>4</ma:v>
       </ma:c>
       <ma:c r="C3" s="8" t="s">
-        <ma:v>25</ma:v>
+        <ma:v>29</ma:v>
       </ma:c>
       <ma:c r="D3" s="9"/>
       <ma:c r="E3" s="23"/>
@@ -1186,7 +1186,7 @@
         <ma:v>6</ma:v>
       </ma:c>
       <ma:c r="C4" s="8" t="s">
-        <ma:v>26</ma:v>
+        <ma:v>24</ma:v>
       </ma:c>
       <ma:c r="D4" s="9"/>
       <ma:c r="E4" s="23"/>
@@ -1196,7 +1196,7 @@
         <ma:v>8</ma:v>
       </ma:c>
       <ma:c r="B5" s="11" t="s">
-        <ma:v>27</ma:v>
+        <ma:v>25</ma:v>
       </ma:c>
       <ma:c r="C5" s="12"/>
       <ma:c r="D5" s="13"/>
@@ -1245,7 +1245,7 @@
         <ma:v>18</ma:v>
       </ma:c>
       <ma:c r="C9" s="21" t="s">
-        <ma:v>28</ma:v>
+        <ma:v>26</ma:v>
       </ma:c>
       <ma:c r="D9" s="21"/>
       <ma:c r="E9" s="23"/>
@@ -1256,7 +1256,7 @@
         <ma:v>20</ma:v>
       </ma:c>
       <ma:c r="C10" s="21" t="s">
-        <ma:v>29</ma:v>
+        <ma:v>27</ma:v>
       </ma:c>
       <ma:c r="D10" s="21"/>
       <ma:c r="E10" s="23"/>
